--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st01.xlsx
@@ -2180,7 +2180,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Capone"]   But in days gone by, our ancestors sat around the dark tables of Siracusa and proudly called themselves "Sicilian."
+    <t xml:space="preserve">[name="Capone"]   But in days gone by, our ancestors sat around the dark tables of Siracusa and proudly called themselves 'Sicilian.'
 </t>
   </si>
   <si>
@@ -2380,7 +2380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Bison"]   Texas said "to the ends of the earth." And that we'd meet up in an hour?
+    <t xml:space="preserve">[name="Bison"]   Texas said 'to the ends of the earth.' And that we'd meet up in an hour?
 </t>
   </si>
   <si>
@@ -2424,7 +2424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   That "Mr. Capone" may not have gone far.
+    <t xml:space="preserve">[name="Mostima"]   That 'Mr. Capone' may not have gone far.
 </t>
   </si>
   <si>
@@ -2680,7 +2680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   Someone gave me a job with a big pile of cash, the job said "take Bison to see the world." Mmm. Real stylish job.
+    <t xml:space="preserve">[name="Mostima"]   Someone gave me a job with a big pile of cash, the job said 'take Bison to see the world.' Mmm. Real stylish job.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_st01.xlsx
@@ -2240,7 +2240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Capone"]   But now we're done talkin'. Say good night, little prince.
+    <t xml:space="preserve">[name="Capone"]   But now we're done talkin.' Say good night, little prince.
 </t>
   </si>
   <si>
